--- a/Data/data_MIPAR_otsu.xlsx
+++ b/Data/data_MIPAR_otsu.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,6 +480,9 @@
       <c r="B2" t="n">
         <v>12651</v>
       </c>
+      <c r="C2" t="n">
+        <v>1119.134118676186</v>
+      </c>
       <c r="D2" t="n">
         <v>169.2128601074219</v>
       </c>
@@ -441,6 +512,9 @@
       <c r="B3" t="n">
         <v>10624</v>
       </c>
+      <c r="C3" t="n">
+        <v>914.9747383594513</v>
+      </c>
       <c r="D3" t="n">
         <v>59.02758026123047</v>
       </c>
@@ -458,6 +532,9 @@
       <c r="B4" t="n">
         <v>5069</v>
       </c>
+      <c r="C4" t="n">
+        <v>506.6589421033859</v>
+      </c>
       <c r="D4" t="n">
         <v>89.50487518310547</v>
       </c>
@@ -475,6 +552,9 @@
       <c r="B5" t="n">
         <v>2185</v>
       </c>
+      <c r="C5" t="n">
+        <v>288.2497808933258</v>
+      </c>
       <c r="D5" t="n">
         <v>36.2332878112793</v>
       </c>
@@ -492,6 +572,9 @@
       <c r="B6" t="n">
         <v>5383</v>
       </c>
+      <c r="C6" t="n">
+        <v>724.7493426799774</v>
+      </c>
       <c r="D6" t="n">
         <v>62.85731887817383</v>
       </c>
@@ -509,6 +592,9 @@
       <c r="B7" t="n">
         <v>4906</v>
       </c>
+      <c r="C7" t="n">
+        <v>406.7594473361969</v>
+      </c>
       <c r="D7" t="n">
         <v>52.76991271972656</v>
       </c>
@@ -526,6 +612,9 @@
       <c r="B8" t="n">
         <v>7581</v>
       </c>
+      <c r="C8" t="n">
+        <v>845.0752435922623</v>
+      </c>
       <c r="D8" t="n">
         <v>75.22272491455078</v>
       </c>
@@ -543,6 +632,9 @@
       <c r="B9" t="n">
         <v>5017</v>
       </c>
+      <c r="C9" t="n">
+        <v>701.3523740768433</v>
+      </c>
       <c r="D9" t="n">
         <v>40.29614639282227</v>
       </c>
@@ -560,6 +652,9 @@
       <c r="B10" t="n">
         <v>14159</v>
       </c>
+      <c r="C10" t="n">
+        <v>1160.721993088722</v>
+      </c>
       <c r="D10" t="n">
         <v>103.3608016967773</v>
       </c>
@@ -577,6 +672,9 @@
       <c r="B11" t="n">
         <v>15324</v>
       </c>
+      <c r="C11" t="n">
+        <v>1213.567665100098</v>
+      </c>
       <c r="D11" t="n">
         <v>123.4579086303711</v>
       </c>
@@ -594,6 +692,9 @@
       <c r="B12" t="n">
         <v>22350</v>
       </c>
+      <c r="C12" t="n">
+        <v>1619.498685359955</v>
+      </c>
       <c r="D12" t="n">
         <v>143.0191955566406</v>
       </c>
@@ -611,6 +712,9 @@
       <c r="B13" t="n">
         <v>6031</v>
       </c>
+      <c r="C13" t="n">
+        <v>703.6122596263885</v>
+      </c>
       <c r="D13" t="n">
         <v>86.30177307128906</v>
       </c>
@@ -628,6 +732,9 @@
       <c r="B14" t="n">
         <v>1408</v>
       </c>
+      <c r="C14" t="n">
+        <v>286.1492756605148</v>
+      </c>
       <c r="D14" t="n">
         <v>20.43699264526367</v>
       </c>
@@ -645,6 +752,9 @@
       <c r="B15" t="n">
         <v>1079</v>
       </c>
+      <c r="C15" t="n">
+        <v>173.3797236680984</v>
+      </c>
       <c r="D15" t="n">
         <v>24.86048316955566</v>
       </c>
@@ -662,6 +772,9 @@
       <c r="B16" t="n">
         <v>1093</v>
       </c>
+      <c r="C16" t="n">
+        <v>195.5807341337204</v>
+      </c>
       <c r="D16" t="n">
         <v>19.71532821655273</v>
       </c>
@@ -679,6 +792,9 @@
       <c r="B17" t="n">
         <v>17253</v>
       </c>
+      <c r="C17" t="n">
+        <v>1430.805253386497</v>
+      </c>
       <c r="D17" t="n">
         <v>55.15476226806641</v>
       </c>
@@ -696,6 +812,9 @@
       <c r="B18" t="n">
         <v>2505</v>
       </c>
+      <c r="C18" t="n">
+        <v>452.558436870575</v>
+      </c>
       <c r="D18" t="n">
         <v>25.13368225097656</v>
       </c>
@@ -713,6 +832,9 @@
       <c r="B19" t="n">
         <v>1023</v>
       </c>
+      <c r="C19" t="n">
+        <v>216.3502861261368</v>
+      </c>
       <c r="D19" t="n">
         <v>19.02426910400391</v>
       </c>
@@ -730,6 +852,9 @@
       <c r="B20" t="n">
         <v>5177</v>
       </c>
+      <c r="C20" t="n">
+        <v>704.4234417676926</v>
+      </c>
       <c r="D20" t="n">
         <v>26.08739280700684</v>
       </c>
@@ -747,6 +872,9 @@
       <c r="B21" t="n">
         <v>1225</v>
       </c>
+      <c r="C21" t="n">
+        <v>242.2497808933258</v>
+      </c>
       <c r="D21" t="n">
         <v>30.11550712585449</v>
       </c>
@@ -764,6 +892,9 @@
       <c r="B22" t="n">
         <v>5542</v>
       </c>
+      <c r="C22" t="n">
+        <v>650.7665876150131</v>
+      </c>
       <c r="D22" t="n">
         <v>77.20115661621094</v>
       </c>
@@ -781,6 +912,9 @@
       <c r="B23" t="n">
         <v>9958</v>
       </c>
+      <c r="C23" t="n">
+        <v>1221.248904466629</v>
+      </c>
       <c r="D23" t="n">
         <v>38.2119255065918</v>
       </c>
@@ -798,6 +932,9 @@
       <c r="B24" t="n">
         <v>1409</v>
       </c>
+      <c r="C24" t="n">
+        <v>306.433546423912</v>
+      </c>
       <c r="D24" t="n">
         <v>33.55219650268555</v>
       </c>
@@ -815,6 +952,9 @@
       <c r="B25" t="n">
         <v>1792</v>
       </c>
+      <c r="C25" t="n">
+        <v>341.2792184352875</v>
+      </c>
       <c r="D25" t="n">
         <v>26.01833724975586</v>
       </c>
@@ -832,6 +972,9 @@
       <c r="B26" t="n">
         <v>1340</v>
       </c>
+      <c r="C26" t="n">
+        <v>282.3919162750244</v>
+      </c>
       <c r="D26" t="n">
         <v>28.34604454040527</v>
       </c>
@@ -849,6 +992,9 @@
       <c r="B27" t="n">
         <v>1588</v>
       </c>
+      <c r="C27" t="n">
+        <v>291.9482651948929</v>
+      </c>
       <c r="D27" t="n">
         <v>29.59787559509277</v>
       </c>
@@ -866,6 +1012,9 @@
       <c r="B28" t="n">
         <v>1012</v>
       </c>
+      <c r="C28" t="n">
+        <v>164.4091612100601</v>
+      </c>
       <c r="D28" t="n">
         <v>27.71010780334473</v>
       </c>
@@ -883,6 +1032,9 @@
       <c r="B29" t="n">
         <v>2575</v>
       </c>
+      <c r="C29" t="n">
+        <v>392.0315254926682</v>
+      </c>
       <c r="D29" t="n">
         <v>30.87912750244141</v>
       </c>
@@ -900,6 +1052,9 @@
       <c r="B30" t="n">
         <v>1547</v>
       </c>
+      <c r="C30" t="n">
+        <v>295.3208485841751</v>
+      </c>
       <c r="D30" t="n">
         <v>26.41268920898438</v>
       </c>
@@ -917,6 +1072,9 @@
       <c r="B31" t="n">
         <v>1097</v>
       </c>
+      <c r="C31" t="n">
+        <v>206.1076455116272</v>
+      </c>
       <c r="D31" t="n">
         <v>24.06790351867676</v>
       </c>
@@ -934,6 +1092,9 @@
       <c r="B32" t="n">
         <v>363</v>
       </c>
+      <c r="C32" t="n">
+        <v>116.5685415267944</v>
+      </c>
       <c r="D32" t="n">
         <v>14.27268028259277</v>
       </c>
@@ -951,6 +1112,9 @@
       <c r="B33" t="n">
         <v>20094</v>
       </c>
+      <c r="C33" t="n">
+        <v>2429.586121559143</v>
+      </c>
       <c r="D33" t="n">
         <v>201.1129913330078</v>
       </c>
@@ -968,6 +1132,9 @@
       <c r="B34" t="n">
         <v>278</v>
       </c>
+      <c r="C34" t="n">
+        <v>100.5685415267944</v>
+      </c>
       <c r="D34" t="n">
         <v>13.03903865814209</v>
       </c>
@@ -985,6 +1152,9 @@
       <c r="B35" t="n">
         <v>2531</v>
       </c>
+      <c r="C35" t="n">
+        <v>435.2447285652161</v>
+      </c>
       <c r="D35" t="n">
         <v>33.32461929321289</v>
       </c>
@@ -1002,6 +1172,9 @@
       <c r="B36" t="n">
         <v>2379</v>
       </c>
+      <c r="C36" t="n">
+        <v>439.7300097942352</v>
+      </c>
       <c r="D36" t="n">
         <v>42.33063888549805</v>
       </c>
@@ -1019,6 +1192,9 @@
       <c r="B37" t="n">
         <v>488</v>
       </c>
+      <c r="C37" t="n">
+        <v>110.811182141304</v>
+      </c>
       <c r="D37" t="n">
         <v>20.72832107543945</v>
       </c>
@@ -1036,6 +1212,9 @@
       <c r="B38" t="n">
         <v>1313</v>
       </c>
+      <c r="C38" t="n">
+        <v>267.3208485841751</v>
+      </c>
       <c r="D38" t="n">
         <v>32.68463134765625</v>
       </c>
@@ -1053,6 +1232,9 @@
       <c r="B39" t="n">
         <v>158</v>
       </c>
+      <c r="C39" t="n">
+        <v>60.76955199241638</v>
+      </c>
       <c r="D39" t="n">
         <v>11.91051387786865</v>
       </c>
@@ -1070,6 +1252,9 @@
       <c r="B40" t="n">
         <v>3079</v>
       </c>
+      <c r="C40" t="n">
+        <v>362.7178171873093</v>
+      </c>
       <c r="D40" t="n">
         <v>45.15926742553711</v>
       </c>
@@ -1087,6 +1272,9 @@
       <c r="B41" t="n">
         <v>6988</v>
       </c>
+      <c r="C41" t="n">
+        <v>936.3717069625854</v>
+      </c>
       <c r="D41" t="n">
         <v>98.2403564453125</v>
       </c>
@@ -1104,6 +1292,9 @@
       <c r="B42" t="n">
         <v>3345</v>
       </c>
+      <c r="C42" t="n">
+        <v>395.7888848781586</v>
+      </c>
       <c r="D42" t="n">
         <v>34.47824478149414</v>
       </c>
@@ -1121,6 +1312,9 @@
       <c r="B43" t="n">
         <v>1518</v>
       </c>
+      <c r="C43" t="n">
+        <v>305.3624787330627</v>
+      </c>
       <c r="D43" t="n">
         <v>17.79508972167969</v>
       </c>
@@ -1138,6 +1332,9 @@
       <c r="B44" t="n">
         <v>2149</v>
       </c>
+      <c r="C44" t="n">
+        <v>365.64674949646</v>
+      </c>
       <c r="D44" t="n">
         <v>25.88787841796875</v>
       </c>
@@ -1155,6 +1352,9 @@
       <c r="B45" t="n">
         <v>68</v>
       </c>
+      <c r="C45" t="n">
+        <v>36.38477599620819</v>
+      </c>
       <c r="D45" t="n">
         <v>7.91377592086792</v>
       </c>
@@ -1172,6 +1372,9 @@
       <c r="B46" t="n">
         <v>1399</v>
       </c>
+      <c r="C46" t="n">
+        <v>254.534051656723</v>
+      </c>
       <c r="D46" t="n">
         <v>37.26615524291992</v>
       </c>
@@ -1189,6 +1392,9 @@
       <c r="B47" t="n">
         <v>2211</v>
       </c>
+      <c r="C47" t="n">
+        <v>418.1736608743668</v>
+      </c>
       <c r="D47" t="n">
         <v>48.26840591430664</v>
       </c>
@@ -1206,6 +1412,9 @@
       <c r="B48" t="n">
         <v>1930</v>
       </c>
+      <c r="C48" t="n">
+        <v>295.3624787330627</v>
+      </c>
       <c r="D48" t="n">
         <v>51.53983688354492</v>
       </c>
@@ -1223,6 +1432,9 @@
       <c r="B49" t="n">
         <v>10080</v>
       </c>
+      <c r="C49" t="n">
+        <v>1075.692555546761</v>
+      </c>
       <c r="D49" t="n">
         <v>40.2666015625</v>
       </c>
@@ -1240,6 +1452,9 @@
       <c r="B50" t="n">
         <v>3501</v>
       </c>
+      <c r="C50" t="n">
+        <v>496.6000670194626</v>
+      </c>
       <c r="D50" t="n">
         <v>22.55279350280762</v>
       </c>
@@ -1257,6 +1472,9 @@
       <c r="B51" t="n">
         <v>6766</v>
       </c>
+      <c r="C51" t="n">
+        <v>648.3990565538406</v>
+      </c>
       <c r="D51" t="n">
         <v>47.95070648193359</v>
       </c>
@@ -1274,6 +1492,9 @@
       <c r="B52" t="n">
         <v>1561</v>
       </c>
+      <c r="C52" t="n">
+        <v>238.4924215078354</v>
+      </c>
       <c r="D52" t="n">
         <v>30.6895580291748</v>
       </c>
@@ -1291,6 +1512,9 @@
       <c r="B53" t="n">
         <v>6857</v>
       </c>
+      <c r="C53" t="n">
+        <v>675.5950146913528</v>
+      </c>
       <c r="D53" t="n">
         <v>51.22039794921875</v>
       </c>
@@ -1308,6 +1532,9 @@
       <c r="B54" t="n">
         <v>2473</v>
       </c>
+      <c r="C54" t="n">
+        <v>407.7300097942352</v>
+      </c>
       <c r="D54" t="n">
         <v>50.26138687133789</v>
       </c>
@@ -1325,6 +1552,9 @@
       <c r="B55" t="n">
         <v>3678</v>
       </c>
+      <c r="C55" t="n">
+        <v>627.068103313446</v>
+      </c>
       <c r="D55" t="n">
         <v>66.39249420166016</v>
       </c>
@@ -1342,6 +1572,9 @@
       <c r="B56" t="n">
         <v>2677</v>
       </c>
+      <c r="C56" t="n">
+        <v>376.6589421033859</v>
+      </c>
       <c r="D56" t="n">
         <v>35.58882141113281</v>
       </c>
@@ -1359,6 +1592,9 @@
       <c r="B57" t="n">
         <v>1085</v>
       </c>
+      <c r="C57" t="n">
+        <v>257.2203433513641</v>
+      </c>
       <c r="D57" t="n">
         <v>39.57465362548828</v>
       </c>
@@ -1376,6 +1612,9 @@
       <c r="B58" t="n">
         <v>2463</v>
       </c>
+      <c r="C58" t="n">
+        <v>468.558436870575</v>
+      </c>
       <c r="D58" t="n">
         <v>59.86075973510742</v>
       </c>
@@ -1393,6 +1632,9 @@
       <c r="B59" t="n">
         <v>2359</v>
       </c>
+      <c r="C59" t="n">
+        <v>392.2741661071777</v>
+      </c>
       <c r="D59" t="n">
         <v>59.01614761352539</v>
       </c>
@@ -1410,6 +1652,9 @@
       <c r="B60" t="n">
         <v>1272</v>
       </c>
+      <c r="C60" t="n">
+        <v>243.5634891986847</v>
+      </c>
       <c r="D60" t="n">
         <v>41.9253044128418</v>
       </c>
@@ -1427,6 +1672,9 @@
       <c r="B61" t="n">
         <v>1127</v>
       </c>
+      <c r="C61" t="n">
+        <v>230.4507913589478</v>
+      </c>
       <c r="D61" t="n">
         <v>21.94552803039551</v>
       </c>
@@ -1444,6 +1692,9 @@
       <c r="B62" t="n">
         <v>4957</v>
       </c>
+      <c r="C62" t="n">
+        <v>722.4234417676926</v>
+      </c>
       <c r="D62" t="n">
         <v>33.93339538574219</v>
       </c>
@@ -1461,6 +1712,9 @@
       <c r="B63" t="n">
         <v>1105</v>
       </c>
+      <c r="C63" t="n">
+        <v>216.2081507444382</v>
+      </c>
       <c r="D63" t="n">
         <v>24.0155143737793</v>
       </c>
@@ -1478,6 +1732,9 @@
       <c r="B64" t="n">
         <v>16309</v>
       </c>
+      <c r="C64" t="n">
+        <v>1147.325024485588</v>
+      </c>
       <c r="D64" t="n">
         <v>93.29006195068359</v>
       </c>
@@ -1495,6 +1752,9 @@
       <c r="B65" t="n">
         <v>12442</v>
       </c>
+      <c r="C65" t="n">
+        <v>1266.219466924667</v>
+      </c>
       <c r="D65" t="n">
         <v>166.5076751708984</v>
       </c>
@@ -1512,6 +1772,9 @@
       <c r="B66" t="n">
         <v>2624</v>
       </c>
+      <c r="C66" t="n">
+        <v>397.7888848781586</v>
+      </c>
       <c r="D66" t="n">
         <v>30.45088005065918</v>
       </c>
@@ -1529,6 +1792,9 @@
       <c r="B67" t="n">
         <v>1127</v>
       </c>
+      <c r="C67" t="n">
+        <v>187.9655101299286</v>
+      </c>
       <c r="D67" t="n">
         <v>32.1766471862793</v>
       </c>
@@ -1546,6 +1812,9 @@
       <c r="B68" t="n">
         <v>11432</v>
       </c>
+      <c r="C68" t="n">
+        <v>1392.101716756821</v>
+      </c>
       <c r="D68" t="n">
         <v>95.61837768554688</v>
       </c>
@@ -1563,6 +1832,9 @@
       <c r="B69" t="n">
         <v>1842</v>
       </c>
+      <c r="C69" t="n">
+        <v>302.4924215078354</v>
+      </c>
       <c r="D69" t="n">
         <v>25.6566333770752</v>
       </c>
@@ -1580,6 +1852,9 @@
       <c r="B70" t="n">
         <v>7511</v>
       </c>
+      <c r="C70" t="n">
+        <v>819.6193999052048</v>
+      </c>
       <c r="D70" t="n">
         <v>71.04266357421875</v>
       </c>
@@ -1597,6 +1872,9 @@
       <c r="B71" t="n">
         <v>1597</v>
       </c>
+      <c r="C71" t="n">
+        <v>289.9066350460052</v>
+      </c>
       <c r="D71" t="n">
         <v>26.77192878723145</v>
       </c>
@@ -1614,6 +1892,9 @@
       <c r="B72" t="n">
         <v>1838</v>
       </c>
+      <c r="C72" t="n">
+        <v>319.2619735002518</v>
+      </c>
       <c r="D72" t="n">
         <v>25.2686595916748</v>
       </c>
@@ -1631,6 +1912,9 @@
       <c r="B73" t="n">
         <v>1801</v>
       </c>
+      <c r="C73" t="n">
+        <v>249.1787132024765</v>
+      </c>
       <c r="D73" t="n">
         <v>41.38188934326172</v>
       </c>
@@ -1648,6 +1932,9 @@
       <c r="B74" t="n">
         <v>4302</v>
       </c>
+      <c r="C74" t="n">
+        <v>551.9554054737091</v>
+      </c>
       <c r="D74" t="n">
         <v>33.18120956420898</v>
       </c>
@@ -1665,6 +1952,9 @@
       <c r="B75" t="n">
         <v>1405</v>
       </c>
+      <c r="C75" t="n">
+        <v>234.1076455116272</v>
+      </c>
       <c r="D75" t="n">
         <v>19.58632850646973</v>
       </c>
@@ -1682,6 +1972,9 @@
       <c r="B76" t="n">
         <v>2431</v>
       </c>
+      <c r="C76" t="n">
+        <v>357.4041088819504</v>
+      </c>
       <c r="D76" t="n">
         <v>35.32419204711914</v>
       </c>
@@ -1699,6 +1992,9 @@
       <c r="B77" t="n">
         <v>8367</v>
       </c>
+      <c r="C77" t="n">
+        <v>994.8986183404922</v>
+      </c>
       <c r="D77" t="n">
         <v>91.57054138183594</v>
       </c>
@@ -1716,6 +2012,9 @@
       <c r="B78" t="n">
         <v>1891</v>
       </c>
+      <c r="C78" t="n">
+        <v>344.7766922712326</v>
+      </c>
       <c r="D78" t="n">
         <v>29.54037475585938</v>
       </c>
@@ -1733,6 +2032,9 @@
       <c r="B79" t="n">
         <v>2635</v>
       </c>
+      <c r="C79" t="n">
+        <v>499.6711347103119</v>
+      </c>
       <c r="D79" t="n">
         <v>64.66015625</v>
       </c>
@@ -1750,6 +2052,9 @@
       <c r="B80" t="n">
         <v>2012</v>
       </c>
+      <c r="C80" t="n">
+        <v>349.2030984163284</v>
+      </c>
       <c r="D80" t="n">
         <v>35.37600326538086</v>
       </c>
@@ -1767,6 +2072,9 @@
       <c r="B81" t="n">
         <v>2224</v>
       </c>
+      <c r="C81" t="n">
+        <v>327.2619735002518</v>
+      </c>
       <c r="D81" t="n">
         <v>26.22190284729004</v>
       </c>
@@ -1784,6 +2092,9 @@
       <c r="B82" t="n">
         <v>4173</v>
       </c>
+      <c r="C82" t="n">
+        <v>466.1736608743668</v>
+      </c>
       <c r="D82" t="n">
         <v>34.9639778137207</v>
       </c>
@@ -1801,6 +2112,9 @@
       <c r="B83" t="n">
         <v>1934</v>
       </c>
+      <c r="C83" t="n">
+        <v>387.8650048971176</v>
+      </c>
       <c r="D83" t="n">
         <v>16.87625122070312</v>
       </c>
@@ -1818,6 +2132,9 @@
       <c r="B84" t="n">
         <v>4376</v>
       </c>
+      <c r="C84" t="n">
+        <v>624.4406867027283</v>
+      </c>
       <c r="D84" t="n">
         <v>52.45666885375977</v>
       </c>
@@ -1835,6 +2152,9 @@
       <c r="B85" t="n">
         <v>5496</v>
       </c>
+      <c r="C85" t="n">
+        <v>822.4478269815445</v>
+      </c>
       <c r="D85" t="n">
         <v>110.8724822998047</v>
       </c>
@@ -1852,6 +2172,9 @@
       <c r="B86" t="n">
         <v>111</v>
       </c>
+      <c r="C86" t="n">
+        <v>44.62741661071777</v>
+      </c>
       <c r="D86" t="n">
         <v>11.06118488311768</v>
       </c>
@@ -1869,6 +2192,9 @@
       <c r="B87" t="n">
         <v>1304</v>
       </c>
+      <c r="C87" t="n">
+        <v>238.6934319734573</v>
+      </c>
       <c r="D87" t="n">
         <v>24.02253532409668</v>
       </c>
@@ -1886,6 +2212,9 @@
       <c r="B88" t="n">
         <v>2625</v>
       </c>
+      <c r="C88" t="n">
+        <v>372.1736608743668</v>
+      </c>
       <c r="D88" t="n">
         <v>48.49598693847656</v>
       </c>
@@ -1903,6 +2232,9 @@
       <c r="B89" t="n">
         <v>1726</v>
       </c>
+      <c r="C89" t="n">
+        <v>312.0487704277039</v>
+      </c>
       <c r="D89" t="n">
         <v>45.9676628112793</v>
       </c>
@@ -1920,6 +2252,9 @@
       <c r="B90" t="n">
         <v>1656</v>
       </c>
+      <c r="C90" t="n">
+        <v>235.3797236680984</v>
+      </c>
       <c r="D90" t="n">
         <v>39.23056793212891</v>
       </c>
@@ -1937,6 +2272,9 @@
       <c r="B91" t="n">
         <v>2017</v>
       </c>
+      <c r="C91" t="n">
+        <v>280.8771975040436</v>
+      </c>
       <c r="D91" t="n">
         <v>41.47940063476562</v>
       </c>
@@ -1954,6 +2292,9 @@
       <c r="B92" t="n">
         <v>1508</v>
       </c>
+      <c r="C92" t="n">
+        <v>257.4213538169861</v>
+      </c>
       <c r="D92" t="n">
         <v>33.0192756652832</v>
       </c>
@@ -1971,6 +2312,9 @@
       <c r="B93" t="n">
         <v>1369</v>
       </c>
+      <c r="C93" t="n">
+        <v>207.82337474823</v>
+      </c>
       <c r="D93" t="n">
         <v>39.86850738525391</v>
       </c>
@@ -1987,6 +2331,9 @@
       </c>
       <c r="B94" t="n">
         <v>381</v>
+      </c>
+      <c r="C94" t="n">
+        <v>123.6396092176437</v>
       </c>
       <c r="D94" t="n">
         <v>13.7341251373291</v>
